--- a/Test Cases - Excel Files/Scenariusz Testowy - Weryfikacja nagłówna na stronie glównej.xlsx
+++ b/Test Cases - Excel Files/Scenariusz Testowy - Weryfikacja nagłówna na stronie glównej.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\Selenium-Project-Online-Store-Tests\Test Cases - Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4AB208-F8CD-4141-9A80-415C099C4B97}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAA1D0A-3CEF-4C5D-B3BD-4DE19E3FC971}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="B1:H955"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
